--- a/results/FrequencyTables/26607397_LTR-6.xlsx
+++ b/results/FrequencyTables/26607397_LTR-6.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0505050505050505</v>
+        <v>0.136810279667423</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="D2">
-        <v>0.0202020202020202</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00151171579743008</v>
       </c>
       <c r="F2">
-        <v>0.98989898989899</v>
+        <v>0.965230536659108</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00680272108843537</v>
       </c>
       <c r="H2">
-        <v>0.98989898989899</v>
+        <v>0.974300831443689</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00151171579743008</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00529100529100529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.977324263038549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00604686318972033</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.99244142101285</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="P2">
-        <v>0.0303030303030303</v>
+        <v>0.054421768707483</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.983371126228269</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0143613000755858</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="W2">
-        <v>0.0101010101010101</v>
+        <v>0.0105820105820106</v>
       </c>
       <c r="X2">
-        <v>0.0101010101010101</v>
+        <v>0.00680272108843537</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,49 +539,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="D3">
-        <v>0.0606060606060606</v>
+        <v>0.0256991685563114</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0136054421768707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="I3">
-        <v>0.98989898989899</v>
+        <v>0.993197278911565</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.990929705215419</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.018896447467876</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00680272108843537</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00529100529100529</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="O3">
-        <v>0.676767676767677</v>
+        <v>0.866969009826153</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0513983371126228</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00680272108843537</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.984126984126984</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.994708994708995</v>
       </c>
       <c r="V3">
-        <v>0.0404040404040404</v>
+        <v>0.0513983371126228</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0143613000755858</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00377928949357521</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.808080808080808</v>
+        <v>0.762660619803477</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.99244142101285</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0090702947845805</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="F4">
-        <v>0.0101010101010101</v>
+        <v>0.0294784580498866</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.973544973544973</v>
       </c>
       <c r="H4">
-        <v>0.0101010101010101</v>
+        <v>0.0211640211640212</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.983371126228269</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="P4">
-        <v>0.0101010101010101</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.996220710506425</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.987150415721844</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00151171579743008</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0136054421768707</v>
       </c>
       <c r="W4">
-        <v>0.98989898989899</v>
+        <v>0.973544973544973</v>
       </c>
       <c r="X4">
-        <v>0.98989898989899</v>
+        <v>0.987150415721844</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.141414141414141</v>
+        <v>0.0959939531368103</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="D5">
-        <v>0.919191919191919</v>
+        <v>0.961451247165533</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.973544973544973</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00604686318972033</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00226757369614512</v>
       </c>
       <c r="I5">
-        <v>0.0101010101010101</v>
+        <v>0.00453514739229025</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00151171579743008</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00302343159486017</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00377928949357521</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.981103552532124</v>
       </c>
       <c r="O5">
-        <v>0.323232323232323</v>
+        <v>0.128495842781557</v>
       </c>
       <c r="P5">
-        <v>0.95959595959596</v>
+        <v>0.890400604686319</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00151171579743008</v>
       </c>
       <c r="V5">
-        <v>0.95959595959596</v>
+        <v>0.932728647014361</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000755857898715042</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00151171579743008</v>
       </c>
     </row>
   </sheetData>
